--- a/Tests/Test_results.xlsx
+++ b/Tests/Test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095812E7-F371-4FEE-ADBD-EA6407B57C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22072D-B17B-4435-87AD-85729AF9A936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>Text representation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>9a</t>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -632,6 +642,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -639,15 +662,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,13 +676,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -949,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="122" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -960,13 +975,14 @@
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="7"/>
     <col min="4" max="5" width="8.6640625" style="5"/>
-    <col min="6" max="6" width="8.6640625" style="4"/>
-    <col min="7" max="8" width="8.6640625" style="5"/>
-    <col min="9" max="9" width="8.6640625" style="4"/>
-    <col min="10" max="16384" width="8.6640625" style="5"/>
+    <col min="6" max="6" width="8.6640625" style="25"/>
+    <col min="7" max="7" width="8.6640625" style="4"/>
+    <col min="8" max="9" width="8.6640625" style="5"/>
+    <col min="10" max="10" width="8.6640625" style="4"/>
+    <col min="11" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,21 +998,24 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6">
@@ -1011,21 +1030,21 @@
       <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>41.86</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>3.13</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>1.5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
       <c r="B3" s="6">
         <v>128</v>
       </c>
@@ -1038,21 +1057,21 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>43.88</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>4.01</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>1.59</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
       <c r="B4" s="6">
         <v>64</v>
       </c>
@@ -1065,183 +1084,192 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>42.58</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>3.02</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>1.55</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="23">
-        <v>128</v>
-      </c>
-      <c r="C5" s="23">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12">
+        <v>128</v>
+      </c>
+      <c r="C5" s="12">
         <v>32</v>
       </c>
-      <c r="D5" s="22">
-        <v>128</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="11">
+        <v>128</v>
+      </c>
+      <c r="E5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
-        <v>42.5</v>
+      <c r="F5" s="25">
+        <v>0.42899999999999999</v>
       </c>
       <c r="G5" s="5">
-        <v>2.5499999999999998</v>
+        <v>43.15</v>
       </c>
       <c r="H5" s="5">
-        <v>2.54</v>
-      </c>
-      <c r="I5" s="4" t="s">
+        <v>3.86</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2.69</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="23">
-        <v>96</v>
-      </c>
-      <c r="C6" s="23">
-        <v>64</v>
-      </c>
-      <c r="D6" s="22">
-        <v>128</v>
-      </c>
-      <c r="E6" s="22">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12">
+        <v>96</v>
+      </c>
+      <c r="C6" s="12">
+        <v>64</v>
+      </c>
+      <c r="D6" s="11">
+        <v>128</v>
+      </c>
+      <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
-        <v>42.18</v>
+      <c r="F6" s="25">
+        <v>0.43</v>
       </c>
       <c r="G6" s="5">
-        <v>3.45</v>
+        <v>43.6</v>
       </c>
       <c r="H6" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="I6" s="4" t="s">
+        <v>3.58</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="23">
-        <v>96</v>
-      </c>
-      <c r="C7" s="23">
-        <v>64</v>
-      </c>
-      <c r="D7" s="22">
-        <v>128</v>
-      </c>
-      <c r="E7" s="22">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12">
+        <v>96</v>
+      </c>
+      <c r="C7" s="12">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11">
+        <v>128</v>
+      </c>
+      <c r="E7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
-        <v>41.72</v>
+      <c r="F7" s="25">
+        <v>0.42899999999999999</v>
       </c>
       <c r="G7" s="5">
-        <v>2.2200000000000002</v>
+        <v>43.19</v>
       </c>
       <c r="H7" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I7" s="4" t="s">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="19">
-        <v>128</v>
-      </c>
-      <c r="C8" s="19">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9">
+        <v>128</v>
+      </c>
+      <c r="C8" s="9">
         <v>256</v>
       </c>
-      <c r="D8" s="20">
-        <v>64</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="10">
+        <v>64</v>
+      </c>
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>42.41</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>3.97</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>1.48</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="19">
-        <v>128</v>
-      </c>
-      <c r="C9" s="19">
-        <v>96</v>
-      </c>
-      <c r="D9" s="20">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9">
+        <v>128</v>
+      </c>
+      <c r="C9" s="9">
+        <v>96</v>
+      </c>
+      <c r="D9" s="10">
         <v>256</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>41.08</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>1.5</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="19">
-        <v>96</v>
-      </c>
-      <c r="C10" s="19">
-        <v>96</v>
-      </c>
-      <c r="D10" s="20">
-        <v>96</v>
-      </c>
-      <c r="E10" s="20">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9">
+        <v>96</v>
+      </c>
+      <c r="C10" s="9">
+        <v>96</v>
+      </c>
+      <c r="D10" s="10">
+        <v>96</v>
+      </c>
+      <c r="E10" s="10">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>43.74</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>4.01</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>1.68</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6">
@@ -1256,21 +1284,21 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>41.45</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>1.66</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>1.56</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="6">
         <v>96</v>
       </c>
@@ -1283,21 +1311,21 @@
       <c r="E12" s="3">
         <v>14</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>39.11</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>2.16</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>1.73</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="6">
         <v>96</v>
       </c>
@@ -1310,183 +1338,186 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>40.26</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>2.62</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>1.53</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="23">
-        <v>128</v>
-      </c>
-      <c r="C14" s="23">
-        <v>96</v>
-      </c>
-      <c r="D14" s="23">
-        <v>64</v>
-      </c>
-      <c r="E14" s="23">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12">
+        <v>128</v>
+      </c>
+      <c r="C14" s="12">
+        <v>96</v>
+      </c>
+      <c r="D14" s="12">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="26"/>
+      <c r="G14" s="4">
         <v>40.21</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>1.6</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>1.51</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="23">
-        <v>128</v>
-      </c>
-      <c r="C15" s="23">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12">
+        <v>128</v>
+      </c>
+      <c r="C15" s="12">
         <v>256</v>
       </c>
-      <c r="D15" s="23">
-        <v>128</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="12">
+        <v>128</v>
+      </c>
+      <c r="E15" s="12">
         <v>5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="26"/>
+      <c r="G15" s="4">
         <v>41.86</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>1.87</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>1.49</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="23">
-        <v>64</v>
-      </c>
-      <c r="C16" s="23">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12">
+        <v>64</v>
+      </c>
+      <c r="C16" s="12">
         <v>256</v>
       </c>
-      <c r="D16" s="23">
-        <v>64</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="12">
+        <v>64</v>
+      </c>
+      <c r="E16" s="12">
         <v>12</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="26"/>
+      <c r="G16" s="4">
         <v>40.35</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>4.09</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>1.58</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19">
-        <v>128</v>
-      </c>
-      <c r="C17" s="19">
-        <v>64</v>
-      </c>
-      <c r="D17" s="20">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9">
+        <v>128</v>
+      </c>
+      <c r="C17" s="9">
+        <v>64</v>
+      </c>
+      <c r="D17" s="10">
         <v>32</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="10">
         <v>8</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>38.840000000000003</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>3.35</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>1.51</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="19">
-        <v>128</v>
-      </c>
-      <c r="C18" s="19">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9">
+        <v>128</v>
+      </c>
+      <c r="C18" s="9">
         <v>32</v>
       </c>
-      <c r="D18" s="20">
-        <v>64</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="10">
+        <v>64</v>
+      </c>
+      <c r="E18" s="10">
         <v>6</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>38.74</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>3.26</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>1.51</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19">
-        <v>128</v>
-      </c>
-      <c r="C19" s="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9">
+        <v>128</v>
+      </c>
+      <c r="C19" s="9">
         <v>32</v>
       </c>
-      <c r="D19" s="20">
-        <v>64</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="10">
+        <v>64</v>
+      </c>
+      <c r="E19" s="10">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>37.729999999999997</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>3.6</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>1.53</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="6">
@@ -1501,21 +1532,21 @@
       <c r="E20" s="3">
         <v>7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>30.49</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>3.14</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>1.66</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="6">
         <v>96</v>
       </c>
@@ -1528,21 +1559,21 @@
       <c r="E21" s="3">
         <v>8</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>31.41</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>2.56</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>1.67</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="6">
         <v>128</v>
       </c>
@@ -1555,266 +1586,269 @@
       <c r="E22" s="3">
         <v>13</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>31.36</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>3.2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>1.68</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="12">
         <v>32</v>
       </c>
-      <c r="C23" s="23">
-        <v>96</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="12">
+        <v>96</v>
+      </c>
+      <c r="D23" s="12">
         <v>256</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="26"/>
+      <c r="G23" s="4">
         <v>26.36</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>2.29</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>1.72</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="23">
-        <v>96</v>
-      </c>
-      <c r="C24" s="23">
-        <v>96</v>
-      </c>
-      <c r="D24" s="23">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12">
+        <v>96</v>
+      </c>
+      <c r="C24" s="12">
+        <v>96</v>
+      </c>
+      <c r="D24" s="12">
         <v>256</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="26"/>
+      <c r="G24" s="4">
         <v>26.5</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>3.11</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>1.71</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="23">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12">
         <v>32</v>
       </c>
-      <c r="C25" s="23">
-        <v>96</v>
-      </c>
-      <c r="D25" s="23">
-        <v>128</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="C25" s="12">
+        <v>96</v>
+      </c>
+      <c r="D25" s="12">
+        <v>128</v>
+      </c>
+      <c r="E25" s="12">
         <v>14</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="26"/>
+      <c r="G25" s="4">
         <v>29.02</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>3.57</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>1.7</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="19">
-        <v>128</v>
-      </c>
-      <c r="C26" s="19">
-        <v>64</v>
-      </c>
-      <c r="D26" s="20">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9">
+        <v>128</v>
+      </c>
+      <c r="C26" s="9">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10">
         <v>256</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="10">
         <v>11</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>31.13</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>3.26</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>1.71</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="19">
-        <v>128</v>
-      </c>
-      <c r="C27" s="19">
-        <v>96</v>
-      </c>
-      <c r="D27" s="20">
-        <v>128</v>
-      </c>
-      <c r="E27" s="20">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="9">
+        <v>128</v>
+      </c>
+      <c r="C27" s="9">
+        <v>96</v>
+      </c>
+      <c r="D27" s="10">
+        <v>128</v>
+      </c>
+      <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>30.17</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>3.9</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>1.68</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="19">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="9">
         <v>32</v>
       </c>
-      <c r="C28" s="19">
-        <v>96</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C28" s="9">
+        <v>96</v>
+      </c>
+      <c r="D28" s="10">
         <v>32</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="10">
         <v>9</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>30.54</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>3.66</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>1.67</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="23">
-        <v>128</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="B29" s="12">
+        <v>128</v>
+      </c>
+      <c r="C29" s="12">
         <v>32</v>
       </c>
-      <c r="D29" s="22">
-        <v>128</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="D29" s="11">
+        <v>128</v>
+      </c>
+      <c r="E29" s="11">
         <v>10</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>41.86</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>4.32</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>2.63</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23">
-        <v>96</v>
-      </c>
-      <c r="C30" s="23">
-        <v>64</v>
-      </c>
-      <c r="D30" s="22">
-        <v>128</v>
-      </c>
-      <c r="E30" s="22">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="12">
+        <v>96</v>
+      </c>
+      <c r="C30" s="12">
+        <v>64</v>
+      </c>
+      <c r="D30" s="11">
+        <v>128</v>
+      </c>
+      <c r="E30" s="11">
         <v>3</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>42.04</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>4.13</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>1.59</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23">
-        <v>96</v>
-      </c>
-      <c r="C31" s="23">
-        <v>64</v>
-      </c>
-      <c r="D31" s="22">
-        <v>128</v>
-      </c>
-      <c r="E31" s="22">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="12">
+        <v>96</v>
+      </c>
+      <c r="C31" s="12">
+        <v>64</v>
+      </c>
+      <c r="D31" s="11">
+        <v>128</v>
+      </c>
+      <c r="E31" s="11">
         <v>6</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>42.37</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>3.83</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
       <c r="B32" s="6">
         <v>96</v>
       </c>
@@ -1827,21 +1861,21 @@
       <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>42.6</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>2.68</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>1.52</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="6">
         <v>128</v>
       </c>
@@ -1854,21 +1888,21 @@
       <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>42.96</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>2.23</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>1.69</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
       <c r="B34" s="6">
         <v>64</v>
       </c>
@@ -1881,104 +1915,107 @@
       <c r="E34" s="3">
         <v>3</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>41.77</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>3.91</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>1.58</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="23">
-        <v>128</v>
-      </c>
-      <c r="C35" s="23">
-        <v>96</v>
-      </c>
-      <c r="D35" s="23">
-        <v>64</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="B35" s="12">
+        <v>128</v>
+      </c>
+      <c r="C35" s="12">
+        <v>96</v>
+      </c>
+      <c r="D35" s="12">
+        <v>64</v>
+      </c>
+      <c r="E35" s="12">
         <v>7</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="26"/>
+      <c r="G35" s="4">
         <v>35.950000000000003</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>2.34</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>1.58</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23">
-        <v>128</v>
-      </c>
-      <c r="C36" s="23">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="12">
+        <v>128</v>
+      </c>
+      <c r="C36" s="12">
         <v>256</v>
       </c>
-      <c r="D36" s="23">
-        <v>128</v>
-      </c>
-      <c r="E36" s="23">
+      <c r="D36" s="12">
+        <v>128</v>
+      </c>
+      <c r="E36" s="12">
         <v>5</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="26"/>
+      <c r="G36" s="4">
         <v>35.26</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>1.58</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="23">
-        <v>64</v>
-      </c>
-      <c r="C37" s="23">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="12">
+        <v>64</v>
+      </c>
+      <c r="C37" s="12">
         <v>256</v>
       </c>
-      <c r="D37" s="23">
-        <v>64</v>
-      </c>
-      <c r="E37" s="23">
+      <c r="D37" s="12">
+        <v>64</v>
+      </c>
+      <c r="E37" s="12">
         <v>12</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>1.94</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>1.63</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
       <c r="B38" s="6">
         <v>128</v>
       </c>
@@ -1991,21 +2028,21 @@
       <c r="E38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>37.92</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>1.96</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>1.61</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
       <c r="B39" s="6">
         <v>96</v>
       </c>
@@ -2018,21 +2055,21 @@
       <c r="E39" s="3">
         <v>14</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>36.82</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>2.23</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>1.74</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
       <c r="B40" s="6">
         <v>96</v>
       </c>
@@ -2045,104 +2082,107 @@
       <c r="E40" s="3">
         <v>10</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>35.85</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>1.88</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>1.61</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="12">
         <v>32</v>
       </c>
-      <c r="C41" s="23">
-        <v>96</v>
-      </c>
-      <c r="D41" s="23">
+      <c r="C41" s="12">
+        <v>96</v>
+      </c>
+      <c r="D41" s="12">
         <v>256</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="12">
         <v>1</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="26"/>
+      <c r="G41" s="4">
         <v>26.36</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>3.69</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>1.73</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="23">
-        <v>96</v>
-      </c>
-      <c r="C42" s="23">
-        <v>96</v>
-      </c>
-      <c r="D42" s="23">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="12">
+        <v>96</v>
+      </c>
+      <c r="C42" s="12">
+        <v>96</v>
+      </c>
+      <c r="D42" s="12">
         <v>256</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="12">
         <v>1</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="26"/>
+      <c r="G42" s="4">
         <v>25.45</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>3.47</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>1.73</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="23">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="12">
         <v>32</v>
       </c>
-      <c r="C43" s="23">
-        <v>96</v>
-      </c>
-      <c r="D43" s="23">
-        <v>128</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="C43" s="12">
+        <v>96</v>
+      </c>
+      <c r="D43" s="12">
+        <v>128</v>
+      </c>
+      <c r="E43" s="12">
         <v>14</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="26"/>
+      <c r="G43" s="4">
         <v>23.38</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>2.54</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>1.74</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
       <c r="B44" s="6">
         <v>128</v>
       </c>
@@ -2155,21 +2195,21 @@
       <c r="E44" s="3">
         <v>7</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>26.82</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>3.16</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>1.74</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
       <c r="B45" s="6">
         <v>96</v>
       </c>
@@ -2182,21 +2222,21 @@
       <c r="E45" s="3">
         <v>8</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>26.64</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>2.27</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>1.74</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
       <c r="B46" s="6">
         <v>128</v>
       </c>
@@ -2209,104 +2249,107 @@
       <c r="E46" s="3">
         <v>13</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>26.41</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H46" s="5">
         <v>2.16</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>1.75</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="19">
-        <v>128</v>
-      </c>
-      <c r="C47" s="19">
-        <v>64</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="B47" s="9">
+        <v>128</v>
+      </c>
+      <c r="C47" s="9">
+        <v>64</v>
+      </c>
+      <c r="D47" s="9">
         <v>32</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="9">
         <v>8</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="26"/>
+      <c r="G47" s="4">
         <v>39.43</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>3.82</v>
       </c>
-      <c r="H47" s="7">
+      <c r="I47" s="7">
         <v>1.52</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="19">
-        <v>128</v>
-      </c>
-      <c r="C48" s="19">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="9">
+        <v>128</v>
+      </c>
+      <c r="C48" s="9">
         <v>32</v>
       </c>
-      <c r="D48" s="19">
-        <v>64</v>
-      </c>
-      <c r="E48" s="19">
+      <c r="D48" s="9">
+        <v>64</v>
+      </c>
+      <c r="E48" s="9">
         <v>6</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="26"/>
+      <c r="G48" s="4">
         <v>40.35</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>2.83</v>
       </c>
-      <c r="H48" s="7">
+      <c r="I48" s="7">
         <v>1.51</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19">
-        <v>128</v>
-      </c>
-      <c r="C49" s="19">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="9">
+        <v>128</v>
+      </c>
+      <c r="C49" s="9">
         <v>32</v>
       </c>
-      <c r="D49" s="19">
-        <v>64</v>
-      </c>
-      <c r="E49" s="19">
+      <c r="D49" s="9">
+        <v>64</v>
+      </c>
+      <c r="E49" s="9">
         <v>5</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="26"/>
+      <c r="G49" s="4">
         <v>38.06</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>1.54</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
       <c r="B50" s="6">
         <v>128</v>
       </c>
@@ -2319,21 +2362,21 @@
       <c r="E50" s="3">
         <v>10</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>40.49</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>3.08</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>1.57</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
       <c r="B51" s="6">
         <v>96</v>
       </c>
@@ -2346,21 +2389,21 @@
       <c r="E51" s="3">
         <v>14</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>40.31</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <v>3.14</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>1.69</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
       <c r="B52" s="6">
         <v>96</v>
       </c>
@@ -2373,104 +2416,104 @@
       <c r="E52" s="3">
         <v>10</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>40.72</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <v>3.54</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>1.52</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="9">
         <v>32</v>
       </c>
-      <c r="C53" s="19">
-        <v>96</v>
-      </c>
-      <c r="D53" s="20">
+      <c r="C53" s="9">
+        <v>96</v>
+      </c>
+      <c r="D53" s="10">
         <v>32</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="10">
         <v>9</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>27.78</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H53" s="5">
         <v>1.67</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>1.69</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19">
-        <v>128</v>
-      </c>
-      <c r="C54" s="19">
-        <v>96</v>
-      </c>
-      <c r="D54" s="20">
-        <v>128</v>
-      </c>
-      <c r="E54" s="20">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="9">
+        <v>128</v>
+      </c>
+      <c r="C54" s="9">
+        <v>96</v>
+      </c>
+      <c r="D54" s="10">
+        <v>128</v>
+      </c>
+      <c r="E54" s="10">
         <v>3</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="5">
+      <c r="H54" s="5">
         <v>4.21</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>1.7</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19">
-        <v>128</v>
-      </c>
-      <c r="C55" s="19">
-        <v>64</v>
-      </c>
-      <c r="D55" s="20">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="9">
+        <v>128</v>
+      </c>
+      <c r="C55" s="9">
+        <v>64</v>
+      </c>
+      <c r="D55" s="10">
         <v>256</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="10">
         <v>11</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>28.61</v>
       </c>
-      <c r="G55" s="5">
+      <c r="H55" s="5">
         <v>3.33</v>
       </c>
-      <c r="H55" s="5">
+      <c r="I55" s="5">
         <v>1.73</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
       <c r="B56" s="6">
         <v>128</v>
       </c>
@@ -2483,21 +2526,21 @@
       <c r="E56" s="3">
         <v>7</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>25.72</v>
       </c>
-      <c r="G56" s="5">
+      <c r="H56" s="5">
         <v>2.25</v>
       </c>
-      <c r="H56" s="5">
+      <c r="I56" s="5">
         <v>1.73</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
       <c r="B57" s="6">
         <v>128</v>
       </c>
@@ -2510,21 +2553,21 @@
       <c r="E57" s="3">
         <v>13</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>25.31</v>
       </c>
-      <c r="G57" s="5">
+      <c r="H57" s="5">
         <v>2.61</v>
       </c>
-      <c r="H57" s="5">
+      <c r="I57" s="5">
         <v>1.76</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
       <c r="B58" s="6">
         <v>96</v>
       </c>
@@ -2537,104 +2580,104 @@
       <c r="E58" s="3">
         <v>8</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>26.87</v>
       </c>
-      <c r="G58" s="5">
+      <c r="H58" s="5">
         <v>2.96</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>1.72</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="19">
-        <v>96</v>
-      </c>
-      <c r="C59" s="19">
-        <v>96</v>
-      </c>
-      <c r="D59" s="20">
-        <v>96</v>
-      </c>
-      <c r="E59" s="20">
+      <c r="B59" s="9">
+        <v>96</v>
+      </c>
+      <c r="C59" s="9">
+        <v>96</v>
+      </c>
+      <c r="D59" s="10">
+        <v>96</v>
+      </c>
+      <c r="E59" s="10">
         <v>4</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>43.1</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>4.34</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>1.86</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="19">
-        <v>128</v>
-      </c>
-      <c r="C60" s="19">
-        <v>96</v>
-      </c>
-      <c r="D60" s="20">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="9">
+        <v>128</v>
+      </c>
+      <c r="C60" s="9">
+        <v>96</v>
+      </c>
+      <c r="D60" s="10">
         <v>256</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="10">
         <v>2</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>42.18</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>3.28</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>1.51</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="19">
-        <v>128</v>
-      </c>
-      <c r="C61" s="19">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="9">
+        <v>128</v>
+      </c>
+      <c r="C61" s="9">
         <v>256</v>
       </c>
-      <c r="D61" s="20">
-        <v>64</v>
-      </c>
-      <c r="E61" s="20">
+      <c r="D61" s="10">
+        <v>64</v>
+      </c>
+      <c r="E61" s="10">
         <v>2</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>41.17</v>
       </c>
-      <c r="G61" s="5">
+      <c r="H61" s="5">
         <v>3.26</v>
       </c>
-      <c r="H61" s="5">
+      <c r="I61" s="5">
         <v>1.49</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
       <c r="B62" s="6">
         <v>128</v>
       </c>
@@ -2647,21 +2690,21 @@
       <c r="E62" s="3">
         <v>3</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>42.78</v>
       </c>
-      <c r="G62" s="5">
+      <c r="H62" s="5">
         <v>4.3899999999999997</v>
       </c>
-      <c r="H62" s="5">
+      <c r="I62" s="5">
         <v>1.7</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
       <c r="B63" s="6">
         <v>96</v>
       </c>
@@ -2674,21 +2717,21 @@
       <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>41.91</v>
       </c>
-      <c r="G63" s="5">
+      <c r="H63" s="5">
         <v>4.93</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>1.52</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
       <c r="B64" s="6">
         <v>64</v>
       </c>
@@ -2701,20 +2744,20 @@
       <c r="E64" s="3">
         <v>3</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>40.950000000000003</v>
       </c>
-      <c r="G64" s="5">
+      <c r="H64" s="5">
         <v>4.38</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>1.59</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -2723,13 +2766,14 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="F65" s="26"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="7"/>
+      <c r="J65" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -2738,13 +2782,14 @@
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="26"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="7"/>
+      <c r="J66" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2753,13 +2798,14 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="F67" s="26"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="7"/>
+      <c r="J67" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -2768,13 +2814,14 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="F68" s="26"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="7"/>
+      <c r="J68" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -2783,13 +2830,14 @@
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="F69" s="26"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="7"/>
+      <c r="J69" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -2798,13 +2846,14 @@
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="F70" s="26"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="7"/>
+      <c r="J70" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>98</v>
       </c>
@@ -2813,10 +2862,11 @@
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="F71" s="26"/>
       <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -2826,11 +2876,11 @@
       <c r="C72" s="7">
         <v>3.41</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
@@ -2840,11 +2890,11 @@
       <c r="C73" s="7">
         <v>2.4</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>101</v>
       </c>
@@ -2854,11 +2904,11 @@
       <c r="C74" s="7">
         <v>2.94</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
@@ -2868,11 +2918,11 @@
       <c r="C75" s="7">
         <v>3.3</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
@@ -2882,11 +2932,11 @@
       <c r="C76" s="7">
         <v>1.44</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
@@ -2896,11 +2946,11 @@
       <c r="C77" s="7">
         <v>2.36</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>105</v>
       </c>
@@ -2910,11 +2960,11 @@
       <c r="C78" s="7">
         <v>3.28</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>106</v>
       </c>
@@ -2924,11 +2974,11 @@
       <c r="C79" s="7">
         <v>1.82</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -2938,7 +2988,7 @@
       <c r="C80" s="7">
         <v>2.81</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Tests/Test_results.xlsx
+++ b/Tests/Test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E22072D-B17B-4435-87AD-85729AF9A936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3582D246-D764-469E-9A1A-B3D191CD71C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,6 +646,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -679,11 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -975,7 +975,7 @@
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="7"/>
     <col min="4" max="5" width="8.6640625" style="5"/>
-    <col min="6" max="6" width="8.6640625" style="25"/>
+    <col min="6" max="6" width="8.6640625" style="14"/>
     <col min="7" max="7" width="8.6640625" style="4"/>
     <col min="8" max="9" width="8.6640625" style="5"/>
     <col min="10" max="10" width="8.6640625" style="4"/>
@@ -998,7 +998,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1015,7 +1015,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6">
@@ -1030,6 +1030,9 @@
       <c r="E2" s="3">
         <v>3</v>
       </c>
+      <c r="F2" s="14">
+        <v>0.48899999999999999</v>
+      </c>
       <c r="G2" s="4">
         <v>41.86</v>
       </c>
@@ -1044,7 +1047,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="6">
         <v>128</v>
       </c>
@@ -1057,6 +1060,9 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
+      <c r="F3" s="14">
+        <v>0.44800000000000001</v>
+      </c>
       <c r="G3" s="4">
         <v>43.88</v>
       </c>
@@ -1071,7 +1077,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6">
         <v>64</v>
       </c>
@@ -1084,6 +1090,9 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
+      <c r="F4" s="14">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="G4" s="4">
         <v>42.58</v>
       </c>
@@ -1098,7 +1107,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="12">
         <v>128</v>
       </c>
@@ -1111,7 +1120,7 @@
       <c r="E5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="14">
         <v>0.42899999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -1128,7 +1137,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="12">
         <v>96</v>
       </c>
@@ -1141,7 +1150,7 @@
       <c r="E6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="14">
         <v>0.43</v>
       </c>
       <c r="G6" s="5">
@@ -1158,7 +1167,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="12">
         <v>96</v>
       </c>
@@ -1171,7 +1180,7 @@
       <c r="E7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="14">
         <v>0.42899999999999999</v>
       </c>
       <c r="G7" s="5">
@@ -1188,7 +1197,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="9">
         <v>128</v>
       </c>
@@ -1201,6 +1210,9 @@
       <c r="E8" s="10">
         <v>2</v>
       </c>
+      <c r="F8" s="14">
+        <v>0.47699999999999998</v>
+      </c>
       <c r="G8" s="4">
         <v>42.41</v>
       </c>
@@ -1215,7 +1227,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="9">
         <v>128</v>
       </c>
@@ -1228,6 +1240,9 @@
       <c r="E9" s="10">
         <v>2</v>
       </c>
+      <c r="F9" s="14">
+        <v>0.436</v>
+      </c>
       <c r="G9" s="4">
         <v>41.08</v>
       </c>
@@ -1242,7 +1257,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="9">
         <v>96</v>
       </c>
@@ -1255,6 +1270,9 @@
       <c r="E10" s="10">
         <v>4</v>
       </c>
+      <c r="F10" s="14">
+        <v>0.48</v>
+      </c>
       <c r="G10" s="4">
         <v>43.74</v>
       </c>
@@ -1269,7 +1287,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6">
@@ -1284,6 +1302,9 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
+      <c r="F11" s="14">
+        <v>0.43</v>
+      </c>
       <c r="G11" s="4">
         <v>41.45</v>
       </c>
@@ -1298,7 +1319,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6">
         <v>96</v>
       </c>
@@ -1311,6 +1332,9 @@
       <c r="E12" s="3">
         <v>14</v>
       </c>
+      <c r="F12" s="14">
+        <v>0.443</v>
+      </c>
       <c r="G12" s="4">
         <v>39.11</v>
       </c>
@@ -1325,7 +1349,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="6">
         <v>96</v>
       </c>
@@ -1338,6 +1362,9 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
+      <c r="F13" s="14">
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G13" s="4">
         <v>40.26</v>
       </c>
@@ -1352,7 +1379,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="12">
         <v>128</v>
       </c>
@@ -1365,7 +1392,9 @@
       <c r="E14" s="12">
         <v>7</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="15">
+        <v>0.442</v>
+      </c>
       <c r="G14" s="4">
         <v>40.21</v>
       </c>
@@ -1380,7 +1409,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="12">
         <v>128</v>
       </c>
@@ -1393,7 +1422,9 @@
       <c r="E15" s="12">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="15">
+        <v>0.435</v>
+      </c>
       <c r="G15" s="4">
         <v>41.86</v>
       </c>
@@ -1408,7 +1439,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="12">
         <v>64</v>
       </c>
@@ -1421,7 +1452,9 @@
       <c r="E16" s="12">
         <v>12</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="15">
+        <v>0.38100000000000001</v>
+      </c>
       <c r="G16" s="4">
         <v>40.35</v>
       </c>
@@ -1436,7 +1469,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="9">
         <v>128</v>
       </c>
@@ -1449,6 +1482,9 @@
       <c r="E17" s="10">
         <v>8</v>
       </c>
+      <c r="F17" s="14">
+        <v>0.35</v>
+      </c>
       <c r="G17" s="4">
         <v>38.840000000000003</v>
       </c>
@@ -1463,7 +1499,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="9">
         <v>128</v>
       </c>
@@ -1476,6 +1512,9 @@
       <c r="E18" s="10">
         <v>6</v>
       </c>
+      <c r="F18" s="14">
+        <v>0.38</v>
+      </c>
       <c r="G18" s="4">
         <v>38.74</v>
       </c>
@@ -1490,7 +1529,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="9">
         <v>128</v>
       </c>
@@ -1503,6 +1542,9 @@
       <c r="E19" s="10">
         <v>5</v>
       </c>
+      <c r="F19" s="14">
+        <v>0.441</v>
+      </c>
       <c r="G19" s="4">
         <v>37.729999999999997</v>
       </c>
@@ -1517,7 +1559,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="6">
@@ -1532,6 +1574,9 @@
       <c r="E20" s="3">
         <v>7</v>
       </c>
+      <c r="F20" s="14">
+        <v>0.191</v>
+      </c>
       <c r="G20" s="4">
         <v>30.49</v>
       </c>
@@ -1546,7 +1591,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="6">
         <v>96</v>
       </c>
@@ -1559,6 +1604,9 @@
       <c r="E21" s="3">
         <v>8</v>
       </c>
+      <c r="F21" s="14">
+        <v>0.26400000000000001</v>
+      </c>
       <c r="G21" s="4">
         <v>31.41</v>
       </c>
@@ -1573,7 +1621,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="6">
         <v>128</v>
       </c>
@@ -1586,6 +1634,9 @@
       <c r="E22" s="3">
         <v>13</v>
       </c>
+      <c r="F22" s="14">
+        <v>0.2</v>
+      </c>
       <c r="G22" s="4">
         <v>31.36</v>
       </c>
@@ -1600,7 +1651,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="12">
         <v>32</v>
       </c>
@@ -1613,7 +1664,9 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="15">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="G23" s="4">
         <v>26.36</v>
       </c>
@@ -1628,7 +1681,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="12">
         <v>96</v>
       </c>
@@ -1641,7 +1694,9 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="15">
+        <v>0.21199999999999999</v>
+      </c>
       <c r="G24" s="4">
         <v>26.5</v>
       </c>
@@ -1656,7 +1711,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="12">
         <v>32</v>
       </c>
@@ -1669,7 +1724,9 @@
       <c r="E25" s="12">
         <v>14</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="15">
+        <v>0.2</v>
+      </c>
       <c r="G25" s="4">
         <v>29.02</v>
       </c>
@@ -1684,7 +1741,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="9">
         <v>128</v>
       </c>
@@ -1697,6 +1754,9 @@
       <c r="E26" s="10">
         <v>11</v>
       </c>
+      <c r="F26" s="14">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="G26" s="4">
         <v>31.13</v>
       </c>
@@ -1711,7 +1771,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="9">
         <v>128</v>
       </c>
@@ -1724,6 +1784,9 @@
       <c r="E27" s="10">
         <v>3</v>
       </c>
+      <c r="F27" s="14">
+        <v>0.189</v>
+      </c>
       <c r="G27" s="4">
         <v>30.17</v>
       </c>
@@ -1738,7 +1801,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="9">
         <v>32</v>
       </c>
@@ -1751,6 +1814,9 @@
       <c r="E28" s="10">
         <v>9</v>
       </c>
+      <c r="F28" s="14">
+        <v>0.16400000000000001</v>
+      </c>
       <c r="G28" s="4">
         <v>30.54</v>
       </c>
@@ -1765,7 +1831,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="12">
@@ -1780,6 +1846,9 @@
       <c r="E29" s="11">
         <v>10</v>
       </c>
+      <c r="F29" s="14">
+        <v>0.44</v>
+      </c>
       <c r="G29" s="4">
         <v>41.86</v>
       </c>
@@ -1794,7 +1863,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="12">
         <v>96</v>
       </c>
@@ -1807,6 +1876,9 @@
       <c r="E30" s="11">
         <v>3</v>
       </c>
+      <c r="F30" s="14">
+        <v>0.45</v>
+      </c>
       <c r="G30" s="4">
         <v>42.04</v>
       </c>
@@ -1821,7 +1893,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="12">
         <v>96</v>
       </c>
@@ -1834,6 +1906,9 @@
       <c r="E31" s="11">
         <v>6</v>
       </c>
+      <c r="F31" s="14">
+        <v>0.46</v>
+      </c>
       <c r="G31" s="4">
         <v>42.37</v>
       </c>
@@ -1848,7 +1923,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="6">
         <v>96</v>
       </c>
@@ -1861,6 +1936,9 @@
       <c r="E32" s="3">
         <v>3</v>
       </c>
+      <c r="F32" s="14">
+        <v>0.47</v>
+      </c>
       <c r="G32" s="4">
         <v>42.6</v>
       </c>
@@ -1875,7 +1953,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="6">
         <v>128</v>
       </c>
@@ -1888,6 +1966,9 @@
       <c r="E33" s="3">
         <v>3</v>
       </c>
+      <c r="F33" s="14">
+        <v>0.43</v>
+      </c>
       <c r="G33" s="4">
         <v>42.96</v>
       </c>
@@ -1902,7 +1983,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="6">
         <v>64</v>
       </c>
@@ -1915,6 +1996,9 @@
       <c r="E34" s="3">
         <v>3</v>
       </c>
+      <c r="F34" s="14">
+        <v>0.41399999999999998</v>
+      </c>
       <c r="G34" s="4">
         <v>41.77</v>
       </c>
@@ -1929,7 +2013,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="12">
@@ -1944,7 +2028,9 @@
       <c r="E35" s="12">
         <v>7</v>
       </c>
-      <c r="F35" s="26"/>
+      <c r="F35" s="15">
+        <v>0.41199999999999998</v>
+      </c>
       <c r="G35" s="4">
         <v>35.950000000000003</v>
       </c>
@@ -1959,7 +2045,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="12">
         <v>128</v>
       </c>
@@ -1972,7 +2058,9 @@
       <c r="E36" s="12">
         <v>5</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="15">
+        <v>0.39</v>
+      </c>
       <c r="G36" s="4">
         <v>35.26</v>
       </c>
@@ -1987,7 +2075,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="12">
         <v>64</v>
       </c>
@@ -2000,7 +2088,9 @@
       <c r="E37" s="12">
         <v>12</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="15">
+        <v>0.4</v>
+      </c>
       <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +2105,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="6">
         <v>128</v>
       </c>
@@ -2028,6 +2118,9 @@
       <c r="E38" s="3">
         <v>10</v>
       </c>
+      <c r="F38" s="14">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="G38" s="4">
         <v>37.92</v>
       </c>
@@ -2042,7 +2135,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="6">
         <v>96</v>
       </c>
@@ -2055,6 +2148,9 @@
       <c r="E39" s="3">
         <v>14</v>
       </c>
+      <c r="F39" s="14">
+        <v>0.42899999999999999</v>
+      </c>
       <c r="G39" s="4">
         <v>36.82</v>
       </c>
@@ -2069,7 +2165,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="6">
         <v>96</v>
       </c>
@@ -2082,6 +2178,9 @@
       <c r="E40" s="3">
         <v>10</v>
       </c>
+      <c r="F40" s="14">
+        <v>0.42299999999999999</v>
+      </c>
       <c r="G40" s="4">
         <v>35.85</v>
       </c>
@@ -2096,7 +2195,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="12">
@@ -2111,7 +2210,9 @@
       <c r="E41" s="12">
         <v>1</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="15">
+        <v>0.20300000000000001</v>
+      </c>
       <c r="G41" s="4">
         <v>26.36</v>
       </c>
@@ -2126,7 +2227,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="12">
         <v>96</v>
       </c>
@@ -2139,7 +2240,9 @@
       <c r="E42" s="12">
         <v>1</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="15">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="G42" s="4">
         <v>25.45</v>
       </c>
@@ -2154,7 +2257,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="12">
         <v>32</v>
       </c>
@@ -2167,7 +2270,9 @@
       <c r="E43" s="12">
         <v>14</v>
       </c>
-      <c r="F43" s="26"/>
+      <c r="F43" s="15">
+        <v>0.2</v>
+      </c>
       <c r="G43" s="4">
         <v>23.38</v>
       </c>
@@ -2182,7 +2287,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="6">
         <v>128</v>
       </c>
@@ -2195,6 +2300,9 @@
       <c r="E44" s="3">
         <v>7</v>
       </c>
+      <c r="F44" s="14">
+        <v>0.20300000000000001</v>
+      </c>
       <c r="G44" s="4">
         <v>26.82</v>
       </c>
@@ -2209,7 +2317,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="6">
         <v>96</v>
       </c>
@@ -2222,6 +2330,9 @@
       <c r="E45" s="3">
         <v>8</v>
       </c>
+      <c r="F45" s="14">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="G45" s="4">
         <v>26.64</v>
       </c>
@@ -2236,7 +2347,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="6">
         <v>128</v>
       </c>
@@ -2249,6 +2360,9 @@
       <c r="E46" s="3">
         <v>13</v>
       </c>
+      <c r="F46" s="14">
+        <v>0.151</v>
+      </c>
       <c r="G46" s="4">
         <v>26.41</v>
       </c>
@@ -2263,7 +2377,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="9">
@@ -2278,7 +2392,9 @@
       <c r="E47" s="9">
         <v>8</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="15">
+        <v>0.41599999999999998</v>
+      </c>
       <c r="G47" s="4">
         <v>39.43</v>
       </c>
@@ -2293,7 +2409,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="9">
         <v>128</v>
       </c>
@@ -2306,7 +2422,9 @@
       <c r="E48" s="9">
         <v>6</v>
       </c>
-      <c r="F48" s="26"/>
+      <c r="F48" s="15">
+        <v>0.44500000000000001</v>
+      </c>
       <c r="G48" s="4">
         <v>40.35</v>
       </c>
@@ -2321,7 +2439,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="9">
         <v>128</v>
       </c>
@@ -2334,7 +2452,9 @@
       <c r="E49" s="9">
         <v>5</v>
       </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="15">
+        <v>0.38</v>
+      </c>
       <c r="G49" s="4">
         <v>38.06</v>
       </c>
@@ -2349,7 +2469,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="6">
         <v>128</v>
       </c>
@@ -2362,6 +2482,9 @@
       <c r="E50" s="3">
         <v>10</v>
       </c>
+      <c r="F50" s="14">
+        <v>0.44</v>
+      </c>
       <c r="G50" s="4">
         <v>40.49</v>
       </c>
@@ -2376,7 +2499,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="6">
         <v>96</v>
       </c>
@@ -2389,6 +2512,9 @@
       <c r="E51" s="3">
         <v>14</v>
       </c>
+      <c r="F51" s="14">
+        <v>0.48</v>
+      </c>
       <c r="G51" s="4">
         <v>40.31</v>
       </c>
@@ -2403,7 +2529,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="6">
         <v>96</v>
       </c>
@@ -2416,6 +2542,9 @@
       <c r="E52" s="3">
         <v>10</v>
       </c>
+      <c r="F52" s="14">
+        <v>0.42399999999999999</v>
+      </c>
       <c r="G52" s="4">
         <v>40.72</v>
       </c>
@@ -2430,7 +2559,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="9">
@@ -2445,6 +2574,9 @@
       <c r="E53" s="10">
         <v>9</v>
       </c>
+      <c r="F53" s="14">
+        <v>0.22</v>
+      </c>
       <c r="G53" s="4">
         <v>27.78</v>
       </c>
@@ -2459,7 +2591,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="9">
         <v>128</v>
       </c>
@@ -2472,6 +2604,9 @@
       <c r="E54" s="10">
         <v>3</v>
       </c>
+      <c r="F54" s="14">
+        <v>0.2</v>
+      </c>
       <c r="G54" s="4" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2621,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="9">
         <v>128</v>
       </c>
@@ -2499,6 +2634,9 @@
       <c r="E55" s="10">
         <v>11</v>
       </c>
+      <c r="F55" s="14">
+        <v>0.23</v>
+      </c>
       <c r="G55" s="4">
         <v>28.61</v>
       </c>
@@ -2513,7 +2651,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="6">
         <v>128</v>
       </c>
@@ -2526,6 +2664,9 @@
       <c r="E56" s="3">
         <v>7</v>
       </c>
+      <c r="F56" s="14">
+        <v>0.18</v>
+      </c>
       <c r="G56" s="4">
         <v>25.72</v>
       </c>
@@ -2540,7 +2681,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="6">
         <v>128</v>
       </c>
@@ -2553,6 +2694,9 @@
       <c r="E57" s="3">
         <v>13</v>
       </c>
+      <c r="F57" s="14">
+        <v>0.19</v>
+      </c>
       <c r="G57" s="4">
         <v>25.31</v>
       </c>
@@ -2567,7 +2711,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="6">
         <v>96</v>
       </c>
@@ -2580,6 +2724,9 @@
       <c r="E58" s="3">
         <v>8</v>
       </c>
+      <c r="F58" s="14">
+        <v>0.16</v>
+      </c>
       <c r="G58" s="4">
         <v>26.87</v>
       </c>
@@ -2594,7 +2741,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="9">
@@ -2609,6 +2756,9 @@
       <c r="E59" s="10">
         <v>4</v>
       </c>
+      <c r="F59" s="14">
+        <v>0.46500000000000002</v>
+      </c>
       <c r="G59" s="4">
         <v>43.1</v>
       </c>
@@ -2623,7 +2773,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="9">
         <v>128</v>
       </c>
@@ -2636,6 +2786,9 @@
       <c r="E60" s="10">
         <v>2</v>
       </c>
+      <c r="F60" s="14">
+        <v>0.47</v>
+      </c>
       <c r="G60" s="4">
         <v>42.18</v>
       </c>
@@ -2650,7 +2803,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="9">
         <v>128</v>
       </c>
@@ -2663,6 +2816,9 @@
       <c r="E61" s="10">
         <v>2</v>
       </c>
+      <c r="F61" s="14">
+        <v>0.43</v>
+      </c>
       <c r="G61" s="4">
         <v>41.17</v>
       </c>
@@ -2677,7 +2833,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="6">
         <v>128</v>
       </c>
@@ -2690,6 +2846,9 @@
       <c r="E62" s="3">
         <v>3</v>
       </c>
+      <c r="F62" s="14">
+        <v>0.46</v>
+      </c>
       <c r="G62" s="4">
         <v>42.78</v>
       </c>
@@ -2704,7 +2863,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="6">
         <v>96</v>
       </c>
@@ -2717,6 +2876,9 @@
       <c r="E63" s="3">
         <v>3</v>
       </c>
+      <c r="F63" s="14">
+        <v>0.45</v>
+      </c>
       <c r="G63" s="4">
         <v>41.91</v>
       </c>
@@ -2731,7 +2893,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="6">
         <v>64</v>
       </c>
@@ -2743,6 +2905,9 @@
       </c>
       <c r="E64" s="3">
         <v>3</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.5</v>
       </c>
       <c r="G64" s="4">
         <v>40.950000000000003</v>
@@ -2766,7 +2931,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="26"/>
+      <c r="F65" s="15"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="4" t="s">
@@ -2782,7 +2947,7 @@
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="26"/>
+      <c r="F66" s="15"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="4" t="s">
@@ -2798,7 +2963,7 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="26"/>
+      <c r="F67" s="15"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="4" t="s">
@@ -2814,7 +2979,7 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="26"/>
+      <c r="F68" s="15"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="4" t="s">
@@ -2830,7 +2995,7 @@
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="26"/>
+      <c r="F69" s="15"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="4" t="s">
@@ -2846,7 +3011,7 @@
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="26"/>
+      <c r="F70" s="15"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="4" t="s">
@@ -2862,7 +3027,7 @@
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="26"/>
+      <c r="F71" s="15"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>

--- a/Tests/Test_results.xlsx
+++ b/Tests/Test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9C380-368E-4E02-ADB5-BFD5F6BB7FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8DDB6-976A-4748-B3A5-957815F84B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="172">
   <si>
     <t>second layer neuron</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,76 @@
   </si>
   <si>
     <t>kernel='rbf',C=1000,class_weight=weight,gamma=0.001</t>
+  </si>
+  <si>
+    <t>Fasttext with Kfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4fa</t>
+  </si>
+  <si>
+    <t>5fa</t>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(epoch,lr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,6 +903,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -842,7 +922,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,13 +940,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,18 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,16 +1232,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="9" customWidth="1"/>
-    <col min="2" max="5" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="10.9140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="9.25" style="1" customWidth="1"/>
@@ -1213,7 +1284,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6">
@@ -1245,7 +1316,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6">
         <v>128</v>
       </c>
@@ -1275,7 +1346,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6">
         <v>64</v>
       </c>
@@ -1305,7 +1376,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7">
         <v>128</v>
       </c>
@@ -1335,7 +1406,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7">
         <v>96</v>
       </c>
@@ -1365,7 +1436,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7">
         <v>96</v>
       </c>
@@ -1395,7 +1466,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="8">
         <v>128</v>
       </c>
@@ -1425,7 +1496,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8">
         <v>128</v>
       </c>
@@ -1455,7 +1526,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8">
         <v>96</v>
       </c>
@@ -1485,7 +1556,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
@@ -1517,7 +1588,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <v>96</v>
       </c>
@@ -1547,7 +1618,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="6">
         <v>96</v>
       </c>
@@ -1577,7 +1648,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="7">
         <v>128</v>
       </c>
@@ -1607,7 +1678,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="7">
         <v>128</v>
       </c>
@@ -1637,7 +1708,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="7">
         <v>64</v>
       </c>
@@ -1667,7 +1738,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8">
         <v>128</v>
       </c>
@@ -1697,7 +1768,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="8">
         <v>128</v>
       </c>
@@ -1727,7 +1798,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8">
         <v>128</v>
       </c>
@@ -1757,7 +1828,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6">
@@ -1789,7 +1860,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="6">
         <v>96</v>
       </c>
@@ -1819,7 +1890,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="6">
         <v>128</v>
       </c>
@@ -1849,7 +1920,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="7">
         <v>32</v>
       </c>
@@ -1879,7 +1950,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="7">
         <v>96</v>
       </c>
@@ -1909,7 +1980,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="7">
         <v>32</v>
       </c>
@@ -1939,7 +2010,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="8">
         <v>128</v>
       </c>
@@ -1969,7 +2040,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="8">
         <v>128</v>
       </c>
@@ -1999,7 +2070,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="8">
         <v>32</v>
       </c>
@@ -2029,7 +2100,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="7">
@@ -2061,7 +2132,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="7">
         <v>96</v>
       </c>
@@ -2091,7 +2162,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="7">
         <v>96</v>
       </c>
@@ -2121,7 +2192,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="6">
         <v>96</v>
       </c>
@@ -2151,7 +2222,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="6">
         <v>128</v>
       </c>
@@ -2181,7 +2252,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6">
         <v>64</v>
       </c>
@@ -2211,7 +2282,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="7">
@@ -2243,7 +2314,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="7">
         <v>128</v>
       </c>
@@ -2273,7 +2344,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="7">
         <v>64</v>
       </c>
@@ -2303,7 +2374,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="6">
         <v>128</v>
       </c>
@@ -2333,7 +2404,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="6">
         <v>96</v>
       </c>
@@ -2363,7 +2434,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="6">
         <v>96</v>
       </c>
@@ -2393,7 +2464,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="7">
@@ -2425,7 +2496,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="7">
         <v>96</v>
       </c>
@@ -2455,7 +2526,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="7">
         <v>32</v>
       </c>
@@ -2485,7 +2556,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="6">
         <v>128</v>
       </c>
@@ -2515,7 +2586,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="6">
         <v>96</v>
       </c>
@@ -2545,7 +2616,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="6">
         <v>128</v>
       </c>
@@ -2575,7 +2646,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="8">
@@ -2607,7 +2678,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="8">
         <v>128</v>
       </c>
@@ -2637,7 +2708,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="8">
         <v>128</v>
       </c>
@@ -2667,7 +2738,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="6">
         <v>128</v>
       </c>
@@ -2697,7 +2768,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="6">
         <v>96</v>
       </c>
@@ -2727,7 +2798,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="6">
         <v>96</v>
       </c>
@@ -2757,7 +2828,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="8">
@@ -2789,7 +2860,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="8">
         <v>128</v>
       </c>
@@ -2819,7 +2890,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="8">
         <v>128</v>
       </c>
@@ -2849,7 +2920,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="6">
         <v>128</v>
       </c>
@@ -2879,7 +2950,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="6">
         <v>128</v>
       </c>
@@ -2909,7 +2980,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="6">
         <v>96</v>
       </c>
@@ -2939,7 +3010,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B59" s="8">
@@ -2971,7 +3042,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="8">
         <v>128</v>
       </c>
@@ -3001,7 +3072,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="8">
         <v>128</v>
       </c>
@@ -3031,7 +3102,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="6">
         <v>128</v>
       </c>
@@ -3061,7 +3132,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="6">
         <v>96</v>
       </c>
@@ -3091,7 +3162,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="6">
         <v>64</v>
       </c>
@@ -3130,7 +3201,7 @@
       <c r="C65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F65" s="10"/>
@@ -3292,14 +3363,14 @@
       <c r="A75" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="21" t="s">
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="14" t="s">
         <v>152</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -3308,20 +3379,20 @@
       <c r="I75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K75" s="19"/>
+      <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="25">
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="15">
         <v>0.26900000000000002</v>
       </c>
       <c r="H76" s="9">
@@ -3338,14 +3409,14 @@
       <c r="A77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="25">
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="15">
         <v>0.39800000000000002</v>
       </c>
       <c r="H77" s="9">
@@ -3362,14 +3433,14 @@
       <c r="A78" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="25">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="15">
         <v>0.437</v>
       </c>
       <c r="H78" s="9">
@@ -3386,14 +3457,14 @@
       <c r="A79" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="25">
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="15">
         <v>0.28299999999999997</v>
       </c>
       <c r="H79" s="9">
@@ -3410,14 +3481,14 @@
       <c r="A80" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="25">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="15">
         <v>0.40699999999999997</v>
       </c>
       <c r="H80" s="9">
@@ -3434,14 +3505,14 @@
       <c r="A81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="25">
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="15">
         <v>0.44</v>
       </c>
       <c r="H81" s="9">
@@ -3458,14 +3529,14 @@
       <c r="A82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="25">
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="15">
         <v>0.22</v>
       </c>
       <c r="H82" s="9">
@@ -3482,14 +3553,14 @@
       <c r="A83" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="25">
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="15">
         <v>0.42399999999999999</v>
       </c>
       <c r="H83" s="9">
@@ -3506,14 +3577,14 @@
       <c r="A84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="25">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="15">
         <v>0.36099999999999999</v>
       </c>
       <c r="H84" s="9">
@@ -3556,7 +3627,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="1">
@@ -3585,7 +3656,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="1">
         <v>16</v>
       </c>
@@ -3612,7 +3683,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="1">
         <v>64</v>
       </c>
@@ -3775,7 +3846,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>141</v>
       </c>
@@ -3792,7 +3863,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>142</v>
       </c>
@@ -3809,13 +3880,129 @@
         <v>151</v>
       </c>
     </row>
+    <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B75:F75"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A59:A64"/>
@@ -3823,7 +4010,8 @@
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A86:A88"/>
     <mergeCell ref="B76:F76"/>
     <mergeCell ref="B77:F77"/>
@@ -3831,6 +4019,9 @@
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B80:F80"/>
     <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tests/Test_results.xlsx
+++ b/Tests/Test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8DDB6-976A-4748-B3A5-957815F84B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03800E8-BB6D-47C2-A715-9B32C84F42FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9700" yWindow="1190" windowWidth="11470" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="188">
   <si>
     <t>second layer neuron</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,86 +599,140 @@
     <t>7lr</t>
   </si>
   <si>
+    <t>9lr</t>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel='rbf',C=1000,class_weight=weight,gamma=0.001</t>
+  </si>
+  <si>
+    <t>(epoch,lr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fasttext using pre-trained vectors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2fp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fp</t>
+  </si>
+  <si>
+    <t>4fp</t>
+  </si>
+  <si>
+    <t>5fp</t>
+  </si>
+  <si>
+    <t>1,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6fp</t>
+  </si>
+  <si>
+    <t>7fp</t>
+  </si>
+  <si>
+    <t>1fpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2fpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fpw</t>
+  </si>
+  <si>
+    <t>4fpw</t>
+  </si>
+  <si>
+    <t>5fpw</t>
+  </si>
+  <si>
+    <t>6fpw</t>
+  </si>
+  <si>
+    <t>7fpw</t>
+  </si>
+  <si>
+    <t>8fpw</t>
+  </si>
+  <si>
+    <t>9fpw</t>
+  </si>
+  <si>
     <t>8lr</t>
-  </si>
-  <si>
-    <t>9lr</t>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel='rbf',C=1000,class_weight=weight,gamma=0.001</t>
-  </si>
-  <si>
-    <t>Fasttext with Kfold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4fa</t>
-  </si>
-  <si>
-    <t>5fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10fpw</t>
+  </si>
+  <si>
+    <t>6,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11fpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(epoch,lr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,0.1</t>
+    <t>char 3-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We didn't try these two because the model overfitted at epoches 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -864,11 +918,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +1029,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -931,26 +1068,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1418,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6">
@@ -1316,7 +1450,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6">
         <v>128</v>
       </c>
@@ -1346,7 +1480,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6">
         <v>64</v>
       </c>
@@ -1376,7 +1510,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7">
         <v>128</v>
       </c>
@@ -1406,7 +1540,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7">
         <v>96</v>
       </c>
@@ -1436,7 +1570,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="7">
         <v>96</v>
       </c>
@@ -1466,7 +1600,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="8">
         <v>128</v>
       </c>
@@ -1496,7 +1630,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="8">
         <v>128</v>
       </c>
@@ -1526,7 +1660,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="8">
         <v>96</v>
       </c>
@@ -1556,7 +1690,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
@@ -1588,7 +1722,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6">
         <v>96</v>
       </c>
@@ -1618,7 +1752,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="6">
         <v>96</v>
       </c>
@@ -1648,7 +1782,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="7">
         <v>128</v>
       </c>
@@ -1678,7 +1812,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7">
         <v>128</v>
       </c>
@@ -1708,7 +1842,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7">
         <v>64</v>
       </c>
@@ -1738,7 +1872,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8">
         <v>128</v>
       </c>
@@ -1768,7 +1902,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="8">
         <v>128</v>
       </c>
@@ -1798,7 +1932,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8">
         <v>128</v>
       </c>
@@ -1828,7 +1962,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6">
@@ -1860,7 +1994,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6">
         <v>96</v>
       </c>
@@ -1890,7 +2024,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6">
         <v>128</v>
       </c>
@@ -1920,7 +2054,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7">
         <v>32</v>
       </c>
@@ -1950,7 +2084,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7">
         <v>96</v>
       </c>
@@ -1980,7 +2114,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7">
         <v>32</v>
       </c>
@@ -2010,7 +2144,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="8">
         <v>128</v>
       </c>
@@ -2040,7 +2174,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="8">
         <v>128</v>
       </c>
@@ -2070,7 +2204,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="8">
         <v>32</v>
       </c>
@@ -2100,7 +2234,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="7">
@@ -2132,7 +2266,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="7">
         <v>96</v>
       </c>
@@ -2162,7 +2296,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="7">
         <v>96</v>
       </c>
@@ -2192,7 +2326,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="6">
         <v>96</v>
       </c>
@@ -2222,7 +2356,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="6">
         <v>128</v>
       </c>
@@ -2252,7 +2386,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6">
         <v>64</v>
       </c>
@@ -2282,7 +2416,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="7">
@@ -2314,7 +2448,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="7">
         <v>128</v>
       </c>
@@ -2344,7 +2478,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="7">
         <v>64</v>
       </c>
@@ -2374,7 +2508,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="6">
         <v>128</v>
       </c>
@@ -2404,7 +2538,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="6">
         <v>96</v>
       </c>
@@ -2434,7 +2568,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="6">
         <v>96</v>
       </c>
@@ -2464,7 +2598,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="7">
@@ -2496,7 +2630,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="7">
         <v>96</v>
       </c>
@@ -2526,7 +2660,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="7">
         <v>32</v>
       </c>
@@ -2556,7 +2690,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="6">
         <v>128</v>
       </c>
@@ -2586,7 +2720,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="6">
         <v>96</v>
       </c>
@@ -2616,7 +2750,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="6">
         <v>128</v>
       </c>
@@ -2646,7 +2780,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="8">
@@ -2678,7 +2812,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="8">
         <v>128</v>
       </c>
@@ -2708,7 +2842,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="8">
         <v>128</v>
       </c>
@@ -2738,7 +2872,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="6">
         <v>128</v>
       </c>
@@ -2768,7 +2902,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="6">
         <v>96</v>
       </c>
@@ -2798,7 +2932,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="6">
         <v>96</v>
       </c>
@@ -2828,7 +2962,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="8">
@@ -2860,7 +2994,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="8">
         <v>128</v>
       </c>
@@ -2890,7 +3024,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="8">
         <v>128</v>
       </c>
@@ -2920,7 +3054,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="6">
         <v>128</v>
       </c>
@@ -2950,7 +3084,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="6">
         <v>128</v>
       </c>
@@ -2980,7 +3114,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="6">
         <v>96</v>
       </c>
@@ -3010,7 +3144,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B59" s="8">
@@ -3042,7 +3176,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="8">
         <v>128</v>
       </c>
@@ -3072,7 +3206,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="8">
         <v>128</v>
       </c>
@@ -3102,7 +3236,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="6">
         <v>128</v>
       </c>
@@ -3132,7 +3266,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="6">
         <v>96</v>
       </c>
@@ -3162,7 +3296,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="6">
         <v>64</v>
       </c>
@@ -3363,15 +3497,15 @@
       <c r="A75" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>108</v>
@@ -3385,13 +3519,13 @@
       <c r="A76" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="15">
         <v>0.26900000000000002</v>
       </c>
@@ -3409,13 +3543,13 @@
       <c r="A77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
       <c r="G77" s="15">
         <v>0.39800000000000002</v>
       </c>
@@ -3433,13 +3567,13 @@
       <c r="A78" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="15">
         <v>0.437</v>
       </c>
@@ -3457,13 +3591,13 @@
       <c r="A79" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="21"/>
+      <c r="B79" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
       <c r="G79" s="15">
         <v>0.28299999999999997</v>
       </c>
@@ -3481,13 +3615,13 @@
       <c r="A80" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
+      <c r="B80" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
       <c r="G80" s="15">
         <v>0.40699999999999997</v>
       </c>
@@ -3505,13 +3639,13 @@
       <c r="A81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
+      <c r="B81" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="15">
         <v>0.44</v>
       </c>
@@ -3529,13 +3663,13 @@
       <c r="A82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
+      <c r="B82" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="28"/>
       <c r="G82" s="15">
         <v>0.22</v>
       </c>
@@ -3553,13 +3687,13 @@
       <c r="A83" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
+      <c r="B83" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="15">
         <v>0.42399999999999999</v>
       </c>
@@ -3577,13 +3711,13 @@
       <c r="A84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="21"/>
+      <c r="B84" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="28"/>
       <c r="G84" s="15">
         <v>0.36099999999999999</v>
       </c>
@@ -3627,7 +3761,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="1">
@@ -3656,7 +3790,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="1">
         <v>16</v>
       </c>
@@ -3683,7 +3817,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="1">
         <v>64</v>
       </c>
@@ -3860,7 +3994,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3877,131 +4011,336 @@
         <v>0.249</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
+      <c r="B101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="24"/>
+      <c r="B103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="24"/>
+      <c r="B104" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="24"/>
+      <c r="B105" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="24"/>
+      <c r="B106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
+      <c r="B107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="31"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="25"/>
+      <c r="B108" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="34"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="24"/>
+      <c r="B111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
+      <c r="C113" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D101" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
+      <c r="C114" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
+      <c r="C115" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D103" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
+      <c r="C116" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="24"/>
+      <c r="B117" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D104" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>163</v>
+      <c r="C117" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="25"/>
+      <c r="B119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="C107:E108"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A47:A52"/>
@@ -4012,16 +4351,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
